--- a/207940 Samsung Biologics.xlsx
+++ b/207940 Samsung Biologics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2411AE-875F-483F-BE24-F4751C7B0C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A75AA8D-2B1A-42BA-98A7-5C82525C13F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{83BA8047-C2E0-43A7-BD8D-F81878882685}"/>
+    <workbookView xWindow="17190" yWindow="45" windowWidth="33795" windowHeight="20775" activeTab="1" xr2:uid="{83BA8047-C2E0-43A7-BD8D-F81878882685}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Shares</t>
   </si>
@@ -163,13 +163,19 @@
   </si>
   <si>
     <t>Acquisitions</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -180,6 +186,13 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -291,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -301,7 +314,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -310,6 +322,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -326,6 +345,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6ECBE1-52F3-865E-F9E6-49E32F0D3F6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7823638" y="13138"/>
+          <a:ext cx="0" cy="7797362"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,13 +701,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C44DE2-1236-4C01-ABE9-7228D8302B19}">
   <dimension ref="B2:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="9" max="11" width="3.28515625" customWidth="1"/>
     <col min="12" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -657,19 +733,14 @@
         <v>2</v>
       </c>
       <c r="M2" s="1">
-        <v>807000</v>
+        <v>820000</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="H3" s="7"/>
       <c r="L3" t="s">
         <v>0</v>
       </c>
@@ -681,88 +752,68 @@
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="7"/>
       <c r="L4" t="s">
         <v>1</v>
       </c>
       <c r="M4" s="1">
         <f>+M2*M3/1000</f>
-        <v>57437.418000000005</v>
+        <v>58362.680000000008</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="7"/>
       <c r="L5" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="1">
-        <v>3147</v>
+        <v>3099.8</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="7"/>
       <c r="L6" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="1">
-        <v>2217.5</v>
+        <v>2078.4</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="7"/>
       <c r="L7" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="1">
         <f>+M4-M5+M6</f>
-        <v>56507.918000000005</v>
+        <v>57341.280000000006</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
@@ -777,74 +828,45 @@
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -854,13 +876,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19B0878-BA7A-4D39-BCBA-9811675534B7}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="A11:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -871,7 +893,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -913,188 +935,285 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11">
         <v>260.8</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>412.2</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12">
+      <c r="I3" s="11">
+        <v>503.7</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11">
         <v>511.3</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="11">
         <v>503.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="M3" s="11">
+        <v>674.6</v>
+      </c>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11">
         <v>166.7</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>187.5</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12">
+      <c r="I4" s="11">
+        <v>232.8</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11">
         <v>199.1</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="11">
         <v>232.8</v>
       </c>
+      <c r="M4" s="11">
+        <v>269.7</v>
+      </c>
+      <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13">
+        <f>1123.7-I6-H6</f>
+        <v>260.8</v>
+      </c>
+      <c r="H6" s="13">
         <v>412.2</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12">
+      <c r="I6" s="13">
+        <v>450.7</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13">
         <v>511.3</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="13">
         <v>651.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="M6" s="13">
+        <v>873</v>
+      </c>
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
         <v>166.8</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12">
+      <c r="I7" s="11">
+        <v>167.4</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11">
         <v>176.4</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>169.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="M7" s="11">
+        <v>324.7</v>
+      </c>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11">
+        <v>201.2</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11">
+        <v>409.4</v>
+      </c>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
         <v>121.5</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12">
+      <c r="I9" s="11">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
         <v>146.9</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L9" s="11">
         <v>152</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="M9" s="11">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
         <v>114.5</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12">
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11">
         <v>213</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L11" s="11">
         <v>-15.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="M11" s="11">
+        <v>436.1</v>
+      </c>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
         <v>-113.3</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12">
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11">
         <v>-302.2</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L12" s="11">
         <v>-179.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="M12" s="11">
+        <v>-284.5</v>
+      </c>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
         <v>0</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12">
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11">
         <v>0</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L13" s="11">
         <v>-1069.9000000000001</v>
+      </c>
+      <c r="M13" s="11">
+        <v>-12.4</v>
+      </c>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="15">
+        <f>K6/G6-1</f>
+        <v>0.96050613496932513</v>
+      </c>
+      <c r="L15" s="15">
+        <f>L6/H6-1</f>
+        <v>0.5803008248423096</v>
+      </c>
+      <c r="M15" s="15">
+        <f>M6/I6-1</f>
+        <v>0.93698690925227424</v>
       </c>
     </row>
   </sheetData>
@@ -1102,5 +1221,7 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A8677BDE-3572-41D6-B632-3ACF4988C103}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/207940 Samsung Biologics.xlsx
+++ b/207940 Samsung Biologics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A75AA8D-2B1A-42BA-98A7-5C82525C13F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67668883-E384-4E70-8717-5E820EB54ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17190" yWindow="45" windowWidth="33795" windowHeight="20775" activeTab="1" xr2:uid="{83BA8047-C2E0-43A7-BD8D-F81878882685}"/>
+    <workbookView xWindow="-28200" yWindow="1500" windowWidth="26460" windowHeight="17940" xr2:uid="{83BA8047-C2E0-43A7-BD8D-F81878882685}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Shares</t>
   </si>
@@ -169,12 +169,54 @@
   </si>
   <si>
     <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -304,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -329,13 +371,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{7599B5C9-D69F-49CF-822D-1D17EEAA4971}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -359,7 +407,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>26276</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>91966</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -403,9 +451,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -443,7 +491,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -549,7 +597,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -691,7 +739,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -701,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C44DE2-1236-4C01-ABE9-7228D8302B19}">
   <dimension ref="B2:N16"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -733,7 +781,7 @@
         <v>2</v>
       </c>
       <c r="M2" s="1">
-        <v>820000</v>
+        <v>980000</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -747,6 +795,9 @@
       <c r="M3" s="1">
         <v>71.174000000000007</v>
       </c>
+      <c r="N3" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
@@ -758,7 +809,7 @@
       </c>
       <c r="M4" s="1">
         <f>+M2*M3/1000</f>
-        <v>58362.680000000008</v>
+        <v>69750.52</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -770,10 +821,11 @@
         <v>3</v>
       </c>
       <c r="M5" s="1">
-        <v>3099.8</v>
+        <f>1060.081+957+0.354+3.111+39.143+49.142+18.085</f>
+        <v>2126.9159999999997</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -785,10 +837,11 @@
         <v>4</v>
       </c>
       <c r="M6" s="1">
-        <v>2078.4</v>
+        <f>1302.223172+194.801</f>
+        <v>1497.0241719999999</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -801,7 +854,7 @@
       </c>
       <c r="M7" s="1">
         <f>+M4-M5+M6</f>
-        <v>57341.280000000006</v>
+        <v>69120.628172000012</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -876,13 +929,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19B0878-BA7A-4D39-BCBA-9811675534B7}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="A11:XFD13"/>
+      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -892,12 +945,12 @@
     <col min="3" max="14" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
@@ -934,8 +987,32 @@
       <c r="N2" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
@@ -964,7 +1041,7 @@
       </c>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
@@ -993,7 +1070,7 @@
       </c>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1005,7 +1082,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>23</v>
       </c>
@@ -1034,184 +1111,318 @@
         <v>873</v>
       </c>
       <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+      <c r="S6" s="14">
+        <v>946.90300000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="S7" s="1">
+        <v>526.74900000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="S8" s="1">
+        <f>+S6-S7</f>
+        <v>420.154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="S9" s="1">
+        <v>198.85400000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
-        <v>166.8</v>
-      </c>
-      <c r="I7" s="11">
-        <v>167.4</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11">
-        <v>176.4</v>
-      </c>
-      <c r="L7" s="11">
-        <v>169.7</v>
-      </c>
-      <c r="M7" s="11">
-        <v>324.7</v>
-      </c>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11">
-        <v>201.2</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11">
-        <v>409.4</v>
-      </c>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
-        <v>121.5</v>
-      </c>
-      <c r="I9" s="11">
-        <v>131.80000000000001</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
-        <v>146.9</v>
-      </c>
-      <c r="L9" s="11">
-        <v>152</v>
-      </c>
-      <c r="M9" s="11">
-        <v>129.19999999999999</v>
-      </c>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="11">
+        <v>166.8</v>
+      </c>
+      <c r="I10" s="11">
+        <v>167.4</v>
+      </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="K10" s="11">
+        <v>176.4</v>
+      </c>
+      <c r="L10" s="11">
+        <v>169.7</v>
+      </c>
+      <c r="M10" s="11">
+        <v>324.7</v>
+      </c>
       <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="1">
+        <f>+S8-S9</f>
+        <v>221.29999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="11">
-        <v>114.5</v>
-      </c>
-      <c r="I11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11">
+        <v>201.2</v>
+      </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="11">
-        <v>213</v>
-      </c>
-      <c r="L11" s="11">
-        <v>-15.7</v>
-      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="11">
-        <v>436.1</v>
+        <v>409.4</v>
       </c>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="11">
-        <v>-113.3</v>
-      </c>
+      <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="11">
-        <v>-302.2</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-179.5</v>
-      </c>
-      <c r="M12" s="11">
-        <v>-284.5</v>
-      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="1">
+        <f>0.3+79.6-61-0.1</f>
+        <v>18.79999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
+      <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="11">
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="S13" s="1">
+        <f>+S12+S10</f>
+        <v>240.09999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="S14" s="1">
+        <v>60.715000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>121.5</v>
+      </c>
+      <c r="I15" s="11">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11">
+        <v>146.9</v>
+      </c>
+      <c r="L15" s="11">
+        <v>152</v>
+      </c>
+      <c r="M15" s="11">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="S15" s="1">
+        <f>+S13-S14</f>
+        <v>179.38499999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11">
+        <v>114.5</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11">
+        <v>213</v>
+      </c>
+      <c r="L17" s="11">
+        <v>-15.7</v>
+      </c>
+      <c r="M17" s="11">
+        <v>436.1</v>
+      </c>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11">
+        <v>-113.3</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11">
+        <v>-302.2</v>
+      </c>
+      <c r="L18" s="11">
+        <v>-179.5</v>
+      </c>
+      <c r="M18" s="11">
+        <v>-284.5</v>
+      </c>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11">
         <v>0</v>
       </c>
-      <c r="L13" s="11">
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
         <v>-1069.9000000000001</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M19" s="11">
         <v>-12.4</v>
       </c>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="N19" s="11"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K21" s="15">
         <f>K6/G6-1</f>
         <v>0.96050613496932513</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L21" s="15">
         <f>L6/H6-1</f>
         <v>0.5803008248423096</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M21" s="15">
         <f>M6/I6-1</f>
         <v>0.93698690925227424</v>
       </c>
